--- a/TestData/NaukariLoginDetails.xlsx
+++ b/TestData/NaukariLoginDetails.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shree\git\naukariUpdate\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="naukaridata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +28,7 @@
     <t>vchapde@123</t>
   </si>
   <si>
-    <t>Software test engineer with 3 year of experience as software test. Have performed functional testing, Smoke Testing, regression testing. Written Test Scenarios, design Test cases and write the automation script.</t>
+    <t>Experience as a Software Test Engineer for 3.1 years. Expertise in Java, Selenium WebDriver,  Data-Driven Framework . Skills in test case design for manual testing, and test script preparation for Automation testing ,Database and API Testing.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +383,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/NaukariLoginDetails.xlsx
+++ b/TestData/NaukariLoginDetails.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shree\Documents\NaukariUpdate\Naukari\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="9405"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="naukaridata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
     <t>vchapde@123</t>
   </si>
   <si>
-    <t>Experience as a Software Test Engineer for 3.1 years. Expertise in Java, Selenium WebDriver,  Data-Driven Framework . Skills in test case design for manual testing, and test script preparation for Automation testing ,Database and API Testing.</t>
+    <t>Software Test Engineer with 3.1 years of experience in software quality processes, Involved in end-to-end features testing. Skills in Automation testing, Manual UI Testing, Database and API Testing. Working knowledge of Cucumber for BDD.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +387,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/NaukariLoginDetails.xlsx
+++ b/TestData/NaukariLoginDetails.xlsx
@@ -32,7 +32,7 @@
     <t>vchapde@123</t>
   </si>
   <si>
-    <t>Software Test Engineer with 3.1 years of experience in software quality processes, Involved in end-to-end features testing. Skills in Automation testing, Manual UI Testing, Database and API Testing. Working knowledge of Cucumber for BDD.</t>
+    <t>Software Test Engineer with 3.2 years of experience in software quality processes, Involved in end-to-end features testing. Skills in Automation, Manual UI Testing, Mobile Testing, Database and API Testing.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
